--- a/biology/Zoologie/Dissorophidae/Dissorophidae.xlsx
+++ b/biology/Zoologie/Dissorophidae/Dissorophidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">dissophoridés
 Dissorophidae ou dissophoridés est une famille d'amphibiens fossiles de l'ordre des Temnospondyli. C'étaient des animaux de taille moyenne qui ont prospéré à la fin du Pennsylvanien et au début du Permien dans ce qui est maintenant l'Amérique du Nord et l'Europe. Même s'il s'agissait d'amphibiens, ils semblent avoir été bien adaptés à la vie sur terre, avec des membres bien développés, des vertèbres solides, et une rangée de plaques dermiques qui tout à la fois protégeait l'animal et renforçait la colonne vertébrale.
@@ -516,9 +528,11 @@
           <t>Cladogramme dans Dissorophoidea</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ci-dessous le cladogramme de la super-famille des Dissorophoidea, effectué en 2013 par Holmes et al.[1], et en utilisant la matrice de données de l'analyse phylogénétique de 2012 de Rainer R. Schoch (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous le cladogramme de la super-famille des Dissorophoidea, effectué en 2013 par Holmes et al., et en utilisant la matrice de données de l'analyse phylogénétique de 2012 de Rainer R. Schoch (d).
 </t>
         </is>
       </c>
